--- a/Front Wing 223/FEA Results.xlsx
+++ b/Front Wing 223/FEA Results.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FSAE\Github\cad-workshop\Front Wing 223\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{80D0615F-933A-4B3F-A3E7-D4A22A722E0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12C05A6-DADF-459F-AAC6-C54F150CE623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B184742A-1238-45B8-BAC9-02C513E7EBFF}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Aluminum internal structure" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,6 +33,17 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>Larger Top Brace</t>
+  </si>
+  <si>
+    <t>Rectangular Tube</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -83,6 +94,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>459673</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{298DA37B-67E9-7764-039F-8B61AAE6D6AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="0"/>
+          <a:ext cx="4726872" cy="2590800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>559365</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0672ACA6-A48A-59CE-DF86-D1372AF5ECE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="2560320"/>
+          <a:ext cx="4826564" cy="2369820"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -382,12 +486,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E162AAFA-5709-4109-B9E6-056354E9F6CA}">
-  <dimension ref="A1"/>
+  <dimension ref="J21:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="21" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Front Wing 223/FEA Results.xlsx
+++ b/Front Wing 223/FEA Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FSAE\Github\cad-workshop\Front Wing 223\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12C05A6-DADF-459F-AAC6-C54F150CE623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E12DA86-CFE8-433C-A9C4-22C9FC2FDF34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B184742A-1238-45B8-BAC9-02C513E7EBFF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B184742A-1238-45B8-BAC9-02C513E7EBFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Aluminum internal structure" sheetId="1" r:id="rId1"/>
@@ -36,12 +36,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Larger Top Brace</t>
   </si>
   <si>
     <t>Rectangular Tube</t>
+  </si>
+  <si>
+    <t>Continued</t>
+  </si>
+  <si>
+    <t>.3 mm</t>
+  </si>
+  <si>
+    <t>Mass</t>
+  </si>
+  <si>
+    <t>Displacement</t>
+  </si>
+  <si>
+    <t>OG</t>
+  </si>
+  <si>
+    <t>.375 mm</t>
+  </si>
+  <si>
+    <t>.4 mm</t>
   </si>
 </sst>
 </file>
@@ -486,22 +507,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E162AAFA-5709-4109-B9E6-056354E9F6CA}">
-  <dimension ref="J21:J31"/>
+  <dimension ref="J1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="16.28515625" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="21" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J21" t="s">
+    <row r="1" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="N1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J31" t="s">
+      <c r="N2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2">
+        <v>468.34</v>
+      </c>
+    </row>
+    <row r="3" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="N3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3">
+        <v>427.58</v>
+      </c>
+    </row>
+    <row r="4" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="N4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O4">
+        <v>410.71</v>
+      </c>
+    </row>
+    <row r="5" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="N5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O5">
+        <v>397.55</v>
+      </c>
+    </row>
+    <row r="16" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J16" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J17" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
